--- a/biology/Zoologie/Caviinae/Caviinae.xlsx
+++ b/biology/Zoologie/Caviinae/Caviinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Caviinae sont une sous-famille de Rongeurs de la famille des Cavidés qui regroupe des cobayes. Parmi eux, le Cobaye commun (Cavia porcellus), connu aussi sous le nom de Cochon d'Inde, est devenu un animal domestique élevé un peu partout dans le monde.
 Cette sous-famille a été décrite pour la première fois en 1817 par le naturaliste russe d'origine saxonne Gotthelf Fischer von Waldheim (1771-1853).
@@ -514,15 +526,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des genres
-Selon Mammal Species of the World (version 3, 2005)  (21 janv. 2013)[1] et ITIS      (8 oct. 2012)[2] :
-genre Cavia Pallas, 1766 - les cobayes proprement dits[3]
-genre Galea Meyen, 1832 - les cobayes à dents jaunes[4]
-genre Microcavia H. Gervais &amp; Ameghino, 1880 - les cobayes de montagne[4]
-Selon Paleobiology Database                   (21 janv. 2013)[5] :
-genre Galea
-Liste des genres et espèces
-Selon Mammal Species of the World (version 3, 2005)  (21 janv. 2013)[1] :
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (21 janv. 2013) et ITIS      (8 oct. 2012) :
+genre Cavia Pallas, 1766 - les cobayes proprement dits
+genre Galea Meyen, 1832 - les cobayes à dents jaunes
+genre Microcavia H. Gervais &amp; Ameghino, 1880 - les cobayes de montagne
+Selon Paleobiology Database                   (21 janv. 2013) :
+genre Galea</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Caviinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caviinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sous-taxons</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (21 janv. 2013) :
 genre Cavia
 Cavia aperea
 Cavia fulgida
